--- a/reeks2/Excel/Book1.xlsx
+++ b/reeks2/Excel/Book1.xlsx
@@ -16,7 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">een </t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>yow</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,14 +362,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="D2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="4:5">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
